--- a/Code/Results/Cases/Case_2_142/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_142/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.40003595771325</v>
+        <v>15.85519579756308</v>
       </c>
       <c r="C2">
-        <v>27.34052060269966</v>
+        <v>14.97343076181612</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.75647145617837</v>
+        <v>16.49170269138759</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.005796222202479</v>
+        <v>3.618659601243766</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34.87209949381399</v>
+        <v>27.50212814490051</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.39335222056395</v>
+        <v>15.18423979154654</v>
       </c>
       <c r="C3">
-        <v>25.20634787212941</v>
+        <v>14.08573814935257</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.30010540262374</v>
+        <v>15.54708399255748</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.024600328248623</v>
+        <v>3.624069924259701</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.77282898374816</v>
+        <v>26.92483206538295</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.11584887162037</v>
+        <v>14.7635238801976</v>
       </c>
       <c r="C4">
-        <v>23.85297946193689</v>
+        <v>13.51619194847083</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.75147451064299</v>
+        <v>14.94359293374112</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.036127645386089</v>
+        <v>3.627547748268274</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.48302894606043</v>
+        <v>26.5709284640591</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.58305547435083</v>
+        <v>14.59018781463931</v>
       </c>
       <c r="C5">
-        <v>23.28974031468775</v>
+        <v>13.27815271822352</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.10886733482152</v>
+        <v>14.6920276531438</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993643</v>
       </c>
       <c r="G5">
-        <v>2.040834630274822</v>
+        <v>3.629004409140012</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.9567293359336</v>
+        <v>26.42700335738451</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.49382786175618</v>
+        <v>14.56130097741652</v>
       </c>
       <c r="C6">
-        <v>23.195482100133</v>
+        <v>13.23827468808588</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26.00143092371928</v>
+        <v>14.6499238518041</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551586</v>
       </c>
       <c r="G6">
-        <v>2.041617167228486</v>
+        <v>3.629248674001613</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.8692861346562</v>
+        <v>26.4031269174809</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.10871378751848</v>
+        <v>14.76119343266333</v>
       </c>
       <c r="C7">
-        <v>23.84543203439348</v>
+        <v>13.51300541770711</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.74285640333934</v>
+        <v>14.94022266838935</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323726</v>
       </c>
       <c r="G7">
-        <v>2.036191069862322</v>
+        <v>3.627567233398814</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.47593436492329</v>
+        <v>26.56898604855467</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.7170390045134</v>
+        <v>15.62583981500083</v>
       </c>
       <c r="C8">
-        <v>26.61297264814876</v>
+        <v>14.67255502284713</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.91700529339968</v>
+        <v>16.17101947384857</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.012293011291332</v>
+        <v>3.620492867985571</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.14807201125607</v>
+        <v>27.30305192504547</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.51545989865656</v>
+        <v>17.24019302504579</v>
       </c>
       <c r="C9">
-        <v>31.75083937411504</v>
+        <v>16.74466533879647</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.89833609502556</v>
+        <v>18.48074792959202</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.0027458068253</v>
       </c>
       <c r="G9">
-        <v>1.96448468550361</v>
+        <v>3.607846383200301</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>39.4194346559263</v>
+        <v>28.74036819957285</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.92758384811026</v>
+        <v>18.36321100165532</v>
       </c>
       <c r="C10">
-        <v>35.44445474961461</v>
+        <v>18.13658108011846</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>40.28994318648883</v>
+        <v>20.15464664419617</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>1.927307896643898</v>
+        <v>3.599287963418478</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>43.42456697511955</v>
+        <v>29.78643701131075</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.4814920704112</v>
+        <v>18.85815080831965</v>
       </c>
       <c r="C11">
-        <v>37.13875770546531</v>
+        <v>18.74044185307907</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>42.33682724177277</v>
+        <v>20.87509341356871</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>1.909456415836051</v>
+        <v>3.595550483900027</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>45.47053010974771</v>
+        <v>30.25844663507181</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.07340750896019</v>
+        <v>19.04312845025527</v>
       </c>
       <c r="C12">
-        <v>37.78629674556564</v>
+        <v>18.96483140483337</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>43.12532101921204</v>
+        <v>21.14205588196877</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>1.902499915400324</v>
+        <v>3.594157347008706</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>46.25553213284459</v>
+        <v>30.43649549188559</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.94570751190121</v>
+        <v>19.00340118397767</v>
       </c>
       <c r="C13">
-        <v>37.64649380811517</v>
+        <v>18.9166962424568</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>42.95477967332034</v>
+        <v>21.08482045518352</v>
       </c>
       <c r="F13">
-        <v>39.56266403260141</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>1.904008108828882</v>
+        <v>3.594456401940157</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>46.08591767355244</v>
+        <v>30.39818231475626</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.53009640088926</v>
+        <v>18.8734188435355</v>
       </c>
       <c r="C14">
-        <v>37.19188399598284</v>
+        <v>18.75898857927392</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>42.40138314650724</v>
+        <v>20.89717367301296</v>
       </c>
       <c r="F14">
-        <v>39.19167637503951</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>1.908888478334143</v>
+        <v>3.595435426824915</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>45.53487406690194</v>
+        <v>30.27310942679796</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.27609368008357</v>
+        <v>18.79347825092647</v>
       </c>
       <c r="C15">
-        <v>36.91433879784134</v>
+        <v>18.66182921719972</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>42.06438688240523</v>
+        <v>20.78147338103637</v>
       </c>
       <c r="F15">
-        <v>38.96319309154521</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>1.911850018964029</v>
+        <v>3.596037987369376</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>45.19884723335225</v>
+        <v>30.19640475423341</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.82631701493221</v>
+        <v>18.33053123681633</v>
       </c>
       <c r="C16">
-        <v>35.33431368382346</v>
+        <v>18.09652150633615</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>40.15764760087666</v>
+        <v>20.10674206141509</v>
       </c>
       <c r="F16">
-        <v>37.63463543028811</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>1.928450886672456</v>
+        <v>3.599535331175743</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>43.2919987844818</v>
+        <v>29.7555006725853</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.93932034541188</v>
+        <v>18.04233106977391</v>
       </c>
       <c r="C17">
-        <v>34.37098365789328</v>
+        <v>17.7421621922296</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>39.00427436852227</v>
+        <v>19.68234129455281</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>1.938357341096137</v>
+        <v>3.601720571798645</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>42.22776414455248</v>
+        <v>29.48393380272258</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.42905809030295</v>
+        <v>17.87507452982459</v>
       </c>
       <c r="C18">
-        <v>33.81792543779895</v>
+        <v>17.53558604760779</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>38.34502037496587</v>
+        <v>19.43437378506921</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>1.94397153109374</v>
+        <v>3.602992142262557</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>41.62935344188431</v>
+        <v>29.32738086253836</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.25619697044693</v>
+        <v>17.81819330150951</v>
       </c>
       <c r="C19">
-        <v>33.63074804326993</v>
+        <v>17.46517138649667</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>38.12236405492159</v>
+        <v>19.34975138532903</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>1.945859538167557</v>
+        <v>3.60342520227751</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>41.42747789485254</v>
+        <v>29.27431807573767</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.03373172920191</v>
+        <v>18.07316602484755</v>
       </c>
       <c r="C20">
-        <v>34.47340196050543</v>
+        <v>17.78017029473189</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>39.12658684902997</v>
+        <v>19.72791901584559</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>1.937311822576968</v>
+        <v>3.601486431810198</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>42.33888992932282</v>
+        <v>29.51288030243327</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.65204477242831</v>
+        <v>18.91166529336682</v>
       </c>
       <c r="C21">
-        <v>37.32521361158719</v>
+        <v>18.80542769788019</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>42.56350224565332</v>
+        <v>20.95244864189617</v>
       </c>
       <c r="F21">
-        <v>39.30090300329777</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>1.907460940640708</v>
+        <v>3.595147263817091</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>45.69640452053365</v>
+        <v>30.30986617177847</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.38614063941845</v>
+        <v>19.44536384345048</v>
       </c>
       <c r="C22">
-        <v>39.22680668569333</v>
+        <v>19.46282356137354</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>44.89292086943746</v>
+        <v>21.71864173808762</v>
       </c>
       <c r="F22">
-        <v>40.81974568026786</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>1.886757095637781</v>
+        <v>3.591133336931493</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>48.00719861610452</v>
+        <v>30.82665710157598</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.45708841726061</v>
+        <v>19.16187349425923</v>
       </c>
       <c r="C23">
-        <v>38.20668584223839</v>
+        <v>19.10852766094444</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>43.6391852598054</v>
+        <v>21.31281661684445</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>1.897943840766037</v>
+        <v>3.59326391271495</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>46.76599173098262</v>
+        <v>30.55125313582716</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.99104955234058</v>
+        <v>18.05923040870989</v>
       </c>
       <c r="C24">
-        <v>34.42709651068382</v>
+        <v>17.76299570462717</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>39.07127786607993</v>
+        <v>19.70732570899519</v>
       </c>
       <c r="F24">
-        <v>36.85121910575587</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>1.937784750033378</v>
+        <v>3.601592238990905</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>42.2886358718213</v>
+        <v>29.49979490486466</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.24424117534462</v>
+        <v>16.81367981890923</v>
       </c>
       <c r="C25">
-        <v>30.38354902670323</v>
+        <v>16.2065894513379</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.29368733510512</v>
+        <v>17.82765916562611</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>1.977648002232056</v>
+        <v>3.611137813282459</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37.98317720313631</v>
+        <v>28.35267522503778</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_142/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_142/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.85519579756308</v>
+        <v>26.40003595771321</v>
       </c>
       <c r="C2">
-        <v>14.97343076181612</v>
+        <v>27.34052060269994</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.49170269138759</v>
+        <v>30.75647145617839</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.618659601243766</v>
+        <v>2.005796222202614</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.50212814490051</v>
+        <v>34.87209949381447</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.18423979154654</v>
+        <v>24.39335222056405</v>
       </c>
       <c r="C3">
-        <v>14.08573814935257</v>
+        <v>25.2063478721295</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.54708399255748</v>
+        <v>28.30010540262392</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.624069924259701</v>
+        <v>2.024600328248629</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.92483206538295</v>
+        <v>32.77282898374821</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.7635238801976</v>
+        <v>23.11584887162041</v>
       </c>
       <c r="C4">
-        <v>13.51619194847083</v>
+        <v>23.85297946193703</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.94359293374112</v>
+        <v>26.751474510643</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.627547748268274</v>
+        <v>2.036127645386352</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.5709284640591</v>
+        <v>31.48302894606092</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.59018781463931</v>
+        <v>22.5830554743507</v>
       </c>
       <c r="C5">
-        <v>13.27815271822352</v>
+        <v>23.2897403146877</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.6920276531438</v>
+        <v>26.1088673348216</v>
       </c>
       <c r="F5">
-        <v>15.00819731993643</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.629004409140012</v>
+        <v>2.040834630274955</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.42700335738451</v>
+        <v>30.9567293359336</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.56130097741652</v>
+        <v>22.49382786175626</v>
       </c>
       <c r="C6">
-        <v>13.23827468808588</v>
+        <v>23.19548210013305</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.6499238518041</v>
+        <v>26.00143092371928</v>
       </c>
       <c r="F6">
-        <v>14.96433081551586</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.629248674001613</v>
+        <v>2.041617167228886</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.4031269174809</v>
+        <v>30.86928613465621</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.76119343266333</v>
+        <v>23.10871378751839</v>
       </c>
       <c r="C7">
-        <v>13.51300541770711</v>
+        <v>23.8454320343934</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.94022266838935</v>
+        <v>26.74285640333935</v>
       </c>
       <c r="F7">
-        <v>15.26647399323726</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.627567233398814</v>
+        <v>2.036191069862189</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.56898604855467</v>
+        <v>31.47593436492321</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.62583981500083</v>
+        <v>25.71703900451331</v>
       </c>
       <c r="C8">
-        <v>14.67255502284713</v>
+        <v>26.61297264814867</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.17101947384857</v>
+        <v>29.91700529339959</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.620492867985571</v>
+        <v>2.012293011291467</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.30305192504547</v>
+        <v>34.14807201125632</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.24019302504579</v>
+        <v>30.51545989865656</v>
       </c>
       <c r="C9">
-        <v>16.74466533879647</v>
+        <v>31.7508393741151</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.48074792959202</v>
+        <v>35.89833609502552</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.607846383200301</v>
+        <v>1.964484685503606</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.74036819957285</v>
+        <v>39.41943465592649</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.36321100165532</v>
+        <v>33.92758384811002</v>
       </c>
       <c r="C10">
-        <v>18.13658108011846</v>
+        <v>35.44445474961442</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.15464664419617</v>
+        <v>40.28994318648865</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847366</v>
       </c>
       <c r="G10">
-        <v>3.599287963418478</v>
+        <v>1.927307896644167</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.78643701131075</v>
+        <v>43.42456697511924</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.85815080831965</v>
+        <v>35.48149207041124</v>
       </c>
       <c r="C11">
-        <v>18.74044185307907</v>
+        <v>37.1387577054653</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.87509341356871</v>
+        <v>42.33682724177268</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232862</v>
       </c>
       <c r="G11">
-        <v>3.595550483900027</v>
+        <v>1.909456415836185</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.25844663507181</v>
+        <v>45.47053010974827</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.04312845025527</v>
+        <v>36.07340750896018</v>
       </c>
       <c r="C12">
-        <v>18.96483140483337</v>
+        <v>37.78629674556554</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.14205588196877</v>
+        <v>43.12532101921199</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.594157347008706</v>
+        <v>1.902499915400328</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.43649549188559</v>
+        <v>46.25553213284451</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.00340118397767</v>
+        <v>35.94570751190108</v>
       </c>
       <c r="C13">
-        <v>18.9166962424568</v>
+        <v>37.64649380811512</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.08482045518352</v>
+        <v>42.95477967332025</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.5626640326014</v>
       </c>
       <c r="G13">
-        <v>3.594456401940157</v>
+        <v>1.904008108828627</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.39818231475626</v>
+        <v>46.0859176735523</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.8734188435355</v>
+        <v>35.53009640088921</v>
       </c>
       <c r="C14">
-        <v>18.75898857927392</v>
+        <v>37.19188399598276</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.89717367301296</v>
+        <v>42.40138314650714</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503949</v>
       </c>
       <c r="G14">
-        <v>3.595435426824915</v>
+        <v>1.908888478334027</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.27310942679796</v>
+        <v>45.53487406690186</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.79347825092647</v>
+        <v>35.27609368008341</v>
       </c>
       <c r="C15">
-        <v>18.66182921719972</v>
+        <v>36.9143387978411</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.78147338103637</v>
+        <v>42.06438688240514</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.596037987369376</v>
+        <v>1.911850018964167</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.19640475423341</v>
+        <v>45.19884723335215</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.33053123681633</v>
+        <v>33.82631701493241</v>
       </c>
       <c r="C16">
-        <v>18.09652150633615</v>
+        <v>35.33431368382368</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.10674206141509</v>
+        <v>40.15764760087675</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028805</v>
       </c>
       <c r="G16">
-        <v>3.599535331175743</v>
+        <v>1.928450886672447</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.7555006725853</v>
+        <v>43.29199878448226</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.04233106977391</v>
+        <v>32.93932034541201</v>
       </c>
       <c r="C17">
-        <v>17.7421621922296</v>
+        <v>34.37098365789341</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.68234129455281</v>
+        <v>39.00427436852249</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.601720571798645</v>
+        <v>1.938357341096264</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.48393380272258</v>
+        <v>42.22776414455294</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.87507452982459</v>
+        <v>32.42905809030299</v>
       </c>
       <c r="C18">
-        <v>17.53558604760779</v>
+        <v>33.81792543779913</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.43437378506921</v>
+        <v>38.34502037496593</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.602992142262557</v>
+        <v>1.943971531093482</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.32738086253836</v>
+        <v>41.62935344188467</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.81819330150951</v>
+        <v>32.25619697044714</v>
       </c>
       <c r="C19">
-        <v>17.46517138649667</v>
+        <v>33.6307480432699</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.34975138532903</v>
+        <v>38.12236405492161</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415763</v>
       </c>
       <c r="G19">
-        <v>3.60342520227751</v>
+        <v>1.945859538167283</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.27431807573767</v>
+        <v>41.42747789485286</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.07316602484755</v>
+        <v>33.03373172920182</v>
       </c>
       <c r="C20">
-        <v>17.78017029473189</v>
+        <v>34.47340196050545</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.72791901584559</v>
+        <v>39.12658684902996</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>3.601486431810198</v>
+        <v>1.937311822576825</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.51288030243327</v>
+        <v>42.33888992932297</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.91166529336682</v>
+        <v>35.65204477242859</v>
       </c>
       <c r="C21">
-        <v>18.80542769788019</v>
+        <v>37.32521361158723</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.95244864189617</v>
+        <v>42.56350224565338</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329778</v>
       </c>
       <c r="G21">
-        <v>3.595147263817091</v>
+        <v>1.907460940640704</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.30986617177847</v>
+        <v>45.69640452053426</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.44536384345048</v>
+        <v>37.3861406394184</v>
       </c>
       <c r="C22">
-        <v>19.46282356137354</v>
+        <v>39.22680668569333</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.71864173808762</v>
+        <v>44.89292086943729</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>3.591133336931493</v>
+        <v>1.88675709563776</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.82665710157598</v>
+        <v>48.00719861610431</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.16187349425923</v>
+        <v>36.45708841726068</v>
       </c>
       <c r="C23">
-        <v>19.10852766094444</v>
+        <v>38.2066858422383</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.31281661684445</v>
+        <v>43.63918525980529</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>3.59326391271495</v>
+        <v>1.897943840765937</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.55125313582716</v>
+        <v>46.76599173098302</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.05923040870989</v>
+        <v>32.99104955234077</v>
       </c>
       <c r="C24">
-        <v>17.76299570462717</v>
+        <v>34.42709651068401</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.70732570899519</v>
+        <v>39.0712778660801</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
-        <v>3.601592238990905</v>
+        <v>1.937784750033658</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.49979490486466</v>
+        <v>42.28863587182168</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.81367981890923</v>
+        <v>29.24424117534472</v>
       </c>
       <c r="C25">
-        <v>16.2065894513379</v>
+        <v>30.38354902670332</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.82765916562611</v>
+        <v>34.29368733510533</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459127051</v>
       </c>
       <c r="G25">
-        <v>3.611137813282459</v>
+        <v>1.97764800223219</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.35267522503778</v>
+        <v>37.98317720313687</v>
       </c>
       <c r="J25">
         <v>0</v>
